--- a/poblacion_indigena_colombia.xlsx
+++ b/poblacion_indigena_colombia.xlsx
@@ -13,10 +13,1445 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="457">
+  <si>
+    <t>Pueblo</t>
+  </si>
+  <si>
+    <t>Nombre alterno</t>
+  </si>
+  <si>
+    <t>Lengua</t>
+  </si>
+  <si>
+    <t>Familia lingüística</t>
+  </si>
+  <si>
+    <t>Población (2018)</t>
+  </si>
+  <si>
+    <t>Distribución</t>
+  </si>
+  <si>
+    <t>Wayuu</t>
+  </si>
+  <si>
+    <t>Zenú</t>
+  </si>
+  <si>
+    <t>Nasa</t>
+  </si>
+  <si>
+    <t>Pasto</t>
+  </si>
+  <si>
+    <t>Emberá Chamí</t>
+  </si>
+  <si>
+    <t>Emberá</t>
+  </si>
+  <si>
+    <t>Sikuani</t>
+  </si>
+  <si>
+    <t>Coyaima</t>
+  </si>
+  <si>
+    <t>Emberá Katío</t>
+  </si>
+  <si>
+    <t>Awá</t>
+  </si>
+  <si>
+    <t>Mokaná</t>
+  </si>
+  <si>
+    <t>Yanacona</t>
+  </si>
+  <si>
+    <t>Arhuaco</t>
+  </si>
+  <si>
+    <t>Guambiano</t>
+  </si>
+  <si>
+    <t>Inga</t>
+  </si>
+  <si>
+    <t>Arzario</t>
+  </si>
+  <si>
+    <t>Coconuco</t>
+  </si>
+  <si>
+    <t>Kankuamo</t>
+  </si>
+  <si>
+    <t>Kogui</t>
+  </si>
+  <si>
+    <t>Waunan</t>
+  </si>
+  <si>
+    <t>Tzase</t>
+  </si>
+  <si>
+    <t>Kubeo</t>
+  </si>
+  <si>
+    <t>Tikuna</t>
+  </si>
+  <si>
+    <t>Kurripako</t>
+  </si>
+  <si>
+    <t>Uitoto</t>
+  </si>
+  <si>
+    <t>Muisca</t>
+  </si>
+  <si>
+    <t>U'wa</t>
+  </si>
+  <si>
+    <t>Puinave</t>
+  </si>
+  <si>
+    <t>Totoró</t>
+  </si>
+  <si>
+    <t>Kamëntsa</t>
+  </si>
+  <si>
+    <t>Quillacinga</t>
+  </si>
+  <si>
+    <t>Eperara Siadipara</t>
+  </si>
+  <si>
+    <t>Sáliba</t>
+  </si>
+  <si>
+    <t>Embera Dobida</t>
+  </si>
+  <si>
+    <t>Tucano</t>
+  </si>
+  <si>
+    <t>Kizgó</t>
+  </si>
+  <si>
+    <t>Kichwa</t>
+  </si>
+  <si>
+    <t>Desano</t>
+  </si>
+  <si>
+    <t>Yupka</t>
+  </si>
+  <si>
+    <t>Wanano</t>
+  </si>
+  <si>
+    <t>Ambaló</t>
+  </si>
+  <si>
+    <t>Coreguaje</t>
+  </si>
+  <si>
+    <t>Cocama</t>
+  </si>
+  <si>
+    <t>Barí</t>
+  </si>
+  <si>
+    <t>Guayabero</t>
+  </si>
+  <si>
+    <t>Tule</t>
+  </si>
+  <si>
+    <t>Siona</t>
+  </si>
+  <si>
+    <t>Cañamomo</t>
+  </si>
+  <si>
+    <t>Amorúa</t>
+  </si>
+  <si>
+    <t>Muinane</t>
+  </si>
+  <si>
+    <t>Makuna</t>
+  </si>
+  <si>
+    <t>Kofán</t>
+  </si>
+  <si>
+    <t>Macahuan</t>
+  </si>
+  <si>
+    <t>Chimila</t>
+  </si>
+  <si>
+    <t>Siriano</t>
+  </si>
+  <si>
+    <t>Yukuna</t>
+  </si>
+  <si>
+    <t>Tuyuka</t>
+  </si>
+  <si>
+    <t>Piaroa</t>
+  </si>
+  <si>
+    <t>Piratapuyo</t>
+  </si>
+  <si>
+    <t>Tatuyo</t>
+  </si>
+  <si>
+    <t>Bora</t>
+  </si>
+  <si>
+    <t>Carapana</t>
+  </si>
+  <si>
+    <t>Bara</t>
+  </si>
+  <si>
+    <t>Tanimuka</t>
+  </si>
+  <si>
+    <t>Yagua</t>
+  </si>
+  <si>
+    <t>Achagua</t>
+  </si>
+  <si>
+    <t>Yurutí</t>
+  </si>
+  <si>
+    <t>Barasana</t>
+  </si>
+  <si>
+    <t>Kuiba</t>
+  </si>
+  <si>
+    <t>Andoke</t>
+  </si>
+  <si>
+    <t>Kawiyarí</t>
+  </si>
+  <si>
+    <t>Miraña</t>
+  </si>
+  <si>
+    <t>Nukak</t>
+  </si>
+  <si>
+    <t>Matapí</t>
+  </si>
+  <si>
+    <t>Dujo</t>
+  </si>
+  <si>
+    <t>Yeral</t>
+  </si>
+  <si>
+    <t>Karijona</t>
+  </si>
+  <si>
+    <t>Masiguare</t>
+  </si>
+  <si>
+    <t>Hitnü</t>
+  </si>
+  <si>
+    <t>Ocaina</t>
+  </si>
+  <si>
+    <t>Wipiwi</t>
+  </si>
+  <si>
+    <t>Letuama</t>
+  </si>
+  <si>
+    <t>Nonuya</t>
+  </si>
+  <si>
+    <t>Andaquí</t>
+  </si>
+  <si>
+    <t>Tariano</t>
+  </si>
+  <si>
+    <t>Guane</t>
+  </si>
+  <si>
+    <t>Pisamira</t>
+  </si>
+  <si>
+    <t>Baniva</t>
+  </si>
+  <si>
+    <t>Nutabe</t>
+  </si>
+  <si>
+    <t>Kakua</t>
+  </si>
+  <si>
+    <t>Tanigua</t>
+  </si>
+  <si>
+    <t>Yamalero</t>
+  </si>
+  <si>
+    <t>Yaruro</t>
+  </si>
+  <si>
+    <t>Betoye</t>
+  </si>
+  <si>
+    <t>Taiwano</t>
+  </si>
+  <si>
+    <t>Yauna</t>
+  </si>
+  <si>
+    <t>Mapayerri</t>
+  </si>
+  <si>
+    <t>Calima</t>
+  </si>
+  <si>
+    <t>Quimbaya</t>
+  </si>
+  <si>
+    <t>Tsiripu</t>
+  </si>
+  <si>
+    <t>Guariquema</t>
+  </si>
+  <si>
+    <t>Panche</t>
+  </si>
+  <si>
+    <t>Makú</t>
+  </si>
+  <si>
+    <t>Tairona</t>
+  </si>
+  <si>
+    <t>Jupda</t>
+  </si>
+  <si>
+    <t>Je'eruriwa</t>
+  </si>
+  <si>
+    <t>Makaguaje</t>
+  </si>
+  <si>
+    <t>Chiricoa</t>
+  </si>
+  <si>
+    <t>Guanaca</t>
+  </si>
+  <si>
+    <t>Yari</t>
+  </si>
+  <si>
+    <t>Chitarero</t>
+  </si>
+  <si>
+    <t>Juhup</t>
+  </si>
+  <si>
+    <t>Hupdu</t>
+  </si>
+  <si>
+    <t>Yuri (en aislamiento voluntario)</t>
+  </si>
+  <si>
+    <t>Otavaleño (indígenas de Ecuador)</t>
+  </si>
+  <si>
+    <t>Maya (indígenas de Guatemala)</t>
+  </si>
+  <si>
+    <t>Indígenas de  Ecuador</t>
+  </si>
+  <si>
+    <t>Indígenas de Venezuela</t>
+  </si>
+  <si>
+    <t>Indígenas de Perú</t>
+  </si>
+  <si>
+    <t>Indígenas de  Brasil</t>
+  </si>
+  <si>
+    <t>Indígenas de Panamá</t>
+  </si>
+  <si>
+    <t>Indígenas de México</t>
+  </si>
+  <si>
+    <t>Goajiro, Guajiro</t>
+  </si>
+  <si>
+    <t>Sinú, Zenú</t>
+  </si>
+  <si>
+    <t>Páez</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Chamí</t>
+  </si>
+  <si>
+    <t>Chocó, Êbêra</t>
+  </si>
+  <si>
+    <t>Guahibo, Hiwi, Jive</t>
+  </si>
+  <si>
+    <t>Natagaima, Pijao</t>
+  </si>
+  <si>
+    <t>Catío, Eyabida</t>
+  </si>
+  <si>
+    <t>Cuaiquer, Kwaiker</t>
+  </si>
+  <si>
+    <t>Yanakuna</t>
+  </si>
+  <si>
+    <t>Aruaco, Bintucua, Ica</t>
+  </si>
+  <si>
+    <t>Misak</t>
+  </si>
+  <si>
+    <t>Ingano, Inka</t>
+  </si>
+  <si>
+    <t>Sanjá, Wiwa</t>
+  </si>
+  <si>
+    <t>Kankuaka, Kankuané, Kankui</t>
+  </si>
+  <si>
+    <t>Kággabba</t>
+  </si>
+  <si>
+    <t>Chanco, Noanamá</t>
+  </si>
+  <si>
+    <t>Enaguas, Piapoco, Wenaiwika</t>
+  </si>
+  <si>
+    <t>Cobewa, Hipnwa, Kaniwa, Paniwa</t>
+  </si>
+  <si>
+    <t>Ticuna, Tukuna</t>
+  </si>
+  <si>
+    <t>Baniwá, Wakuenaí</t>
+  </si>
+  <si>
+    <t>Murui-Muinane, Witoto, Huitoto</t>
+  </si>
+  <si>
+    <t>Chibcha, Muysca</t>
+  </si>
+  <si>
+    <t>Tunebo</t>
+  </si>
+  <si>
+    <t>Wãnsüjüt</t>
+  </si>
+  <si>
+    <t>Kamsá, Sibundoy</t>
+  </si>
+  <si>
+    <t>Epená saija, Saija</t>
+  </si>
+  <si>
+    <t>Sáliva</t>
+  </si>
+  <si>
+    <t>Dasea, Tukano, Ye'pá masa</t>
+  </si>
+  <si>
+    <t>Quizgó</t>
+  </si>
+  <si>
+    <t>Quechua, Quichua</t>
+  </si>
+  <si>
+    <t>Desana, Mimí porá , Wirá</t>
+  </si>
+  <si>
+    <t>Motilón, Yupa</t>
+  </si>
+  <si>
+    <t>Decosirumara, Guanano, Kotíriâ</t>
+  </si>
+  <si>
+    <t>Koré pâín, Korébahü</t>
+  </si>
+  <si>
+    <t>Kokama</t>
+  </si>
+  <si>
+    <t>Dobocubi, Motilón</t>
+  </si>
+  <si>
+    <t>Cunimía, Jiw, Mítiwa, Mitúa</t>
+  </si>
+  <si>
+    <t>Dule, Gunadule, Kuna</t>
+  </si>
+  <si>
+    <t>Katucha-Pai</t>
+  </si>
+  <si>
+    <t>Mariposa, Siripu</t>
+  </si>
+  <si>
+    <t>Buhágana</t>
+  </si>
+  <si>
+    <t>A'i, Cofán</t>
+  </si>
+  <si>
+    <t>Ette ennaka</t>
+  </si>
+  <si>
+    <t>Selea, Sürá, Tubú</t>
+  </si>
+  <si>
+    <t>Kamejeya, Yucuna</t>
+  </si>
+  <si>
+    <t>Dojkapuara</t>
+  </si>
+  <si>
+    <t>De'arua, Wothuha</t>
+  </si>
+  <si>
+    <t>Wa'íkâná</t>
+  </si>
+  <si>
+    <t>Juna, Pamoa, Tatutapuyo, Sina, Sura</t>
+  </si>
+  <si>
+    <t>Meamuyna</t>
+  </si>
+  <si>
+    <t>Karapanã, Ucomaja</t>
+  </si>
+  <si>
+    <t>Barasano del norte, Waimaja</t>
+  </si>
+  <si>
+    <t>Mishara, Nihamwo, Ñihamwo, Yahuna, Yihamwo,</t>
+  </si>
+  <si>
+    <t>Achawa, Axagua</t>
+  </si>
+  <si>
+    <t>Totsoca, Wadyana, Wadzana, Waikana</t>
+  </si>
+  <si>
+    <t>Barasano del sur, Parenoa</t>
+  </si>
+  <si>
+    <t>Wamonae</t>
+  </si>
+  <si>
+    <t>Andoque, Paasiaja</t>
+  </si>
+  <si>
+    <t>Kabiyarí, Kawiarí</t>
+  </si>
+  <si>
+    <t>Améjimínaa</t>
+  </si>
+  <si>
+    <t>Nükâk</t>
+  </si>
+  <si>
+    <t>Jupichiya, Upichia</t>
+  </si>
+  <si>
+    <t>Tama</t>
+  </si>
+  <si>
+    <t>Ñe'engatú</t>
+  </si>
+  <si>
+    <t>Huaque, Koto</t>
+  </si>
+  <si>
+    <t>Maibén</t>
+  </si>
+  <si>
+    <t>Jitnu, Macaguane</t>
+  </si>
+  <si>
+    <t>Diokaya, Orebe</t>
+  </si>
+  <si>
+    <t>Wipijiwi, Waüpijiwi, Huupiw</t>
+  </si>
+  <si>
+    <t>Ohañara, Opaima, Taniboka, Ufania</t>
+  </si>
+  <si>
+    <t>Nunuya</t>
+  </si>
+  <si>
+    <t>Retauarâ</t>
+  </si>
+  <si>
+    <t>Papiwa, Pasatapuyo, Wasina, Wasona</t>
+  </si>
+  <si>
+    <t>Baniwa</t>
+  </si>
+  <si>
+    <t>Tinigua</t>
+  </si>
+  <si>
+    <t>Mariposos</t>
+  </si>
+  <si>
+    <t>Pumé</t>
+  </si>
+  <si>
+    <t>Betoi, Jirarre, Jirarru</t>
+  </si>
+  <si>
+    <t>Eduria, Erulia</t>
+  </si>
+  <si>
+    <t>Kamejeya, Yahuna, Yayuna</t>
+  </si>
+  <si>
+    <t>Tolima</t>
+  </si>
+  <si>
+    <t>Tayrona</t>
+  </si>
+  <si>
+    <t>Hupde, Yojup</t>
+  </si>
+  <si>
+    <t>Airubain, Macaguaxe</t>
+  </si>
+  <si>
+    <t>Yuhupdeh, Macú-Yujup</t>
+  </si>
+  <si>
+    <t>Hupda, Hupdá-makú, Hupdə, Ubde</t>
+  </si>
+  <si>
+    <t>Aroje, Caraballo, Yacumo</t>
+  </si>
+  <si>
+    <t>1 088</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Wayuunaiki</t>
+  </si>
+  <si>
+    <t>Castellano, Zenú</t>
+  </si>
+  <si>
+    <t>Nasa yuwe</t>
+  </si>
+  <si>
+    <t>Castellano, Pasto(†)</t>
+  </si>
+  <si>
+    <t>Castellano, Pijao(†)</t>
+  </si>
+  <si>
+    <t>Katío</t>
+  </si>
+  <si>
+    <t>Awá pit</t>
+  </si>
+  <si>
+    <t>Castellano, Mokaná(†)</t>
+  </si>
+  <si>
+    <t>Castellano</t>
+  </si>
+  <si>
+    <t>Inga Kichwa</t>
+  </si>
+  <si>
+    <t>Dumuna</t>
+  </si>
+  <si>
+    <t>Castellano, Kankui(†)</t>
+  </si>
+  <si>
+    <t>Castellano, Muysccubun</t>
+  </si>
+  <si>
+    <t>Uw cuwa</t>
+  </si>
+  <si>
+    <t>Castellano, Quillacinga(†)</t>
+  </si>
+  <si>
+    <t>Epérã pedée</t>
+  </si>
+  <si>
+    <t>Yukpa ywonkʉ</t>
+  </si>
+  <si>
+    <t>Barí ara</t>
+  </si>
+  <si>
+    <t>Dulegaya</t>
+  </si>
+  <si>
+    <t>Muinave</t>
+  </si>
+  <si>
+    <t>Ette taara</t>
+  </si>
+  <si>
+    <t>Yuruti</t>
+  </si>
+  <si>
+    <t>Barasano</t>
+  </si>
+  <si>
+    <t>Cuiba</t>
+  </si>
+  <si>
+    <t>Castellano, Andaquí(†)</t>
+  </si>
+  <si>
+    <t>Castellano, Guane(†)</t>
+  </si>
+  <si>
+    <t>Karu</t>
+  </si>
+  <si>
+    <t>Castellano, Nutabe(†)</t>
+  </si>
+  <si>
+    <t>tinigua</t>
+  </si>
+  <si>
+    <t>Castellano, Betoi(†)</t>
+  </si>
+  <si>
+    <t>Castellano, Calima(†)</t>
+  </si>
+  <si>
+    <t>Castellano, Quimbaya(†)</t>
+  </si>
+  <si>
+    <t>Castellano, Panche(†)</t>
+  </si>
+  <si>
+    <t>Castellano, Tairona(†)</t>
+  </si>
+  <si>
+    <t>Castellano, Chitarero(†)</t>
+  </si>
+  <si>
+    <t>Yuhup</t>
+  </si>
+  <si>
+    <t>Yuri</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Arawak</t>
+  </si>
+  <si>
+    <t>Indoeuropea, Chocó</t>
+  </si>
+  <si>
+    <t>No clasificada</t>
+  </si>
+  <si>
+    <t>Indoeuropea, Barbacoana</t>
+  </si>
+  <si>
+    <t>Chocó</t>
+  </si>
+  <si>
+    <t>Guahiba</t>
+  </si>
+  <si>
+    <t>Indoeuropea, Aislada</t>
+  </si>
+  <si>
+    <t>Barbacoana</t>
+  </si>
+  <si>
+    <t>Indoeuropea, No clasificada</t>
+  </si>
+  <si>
+    <t>Indoeuropea</t>
+  </si>
+  <si>
+    <t>Chibcha</t>
+  </si>
+  <si>
+    <t>Quechua</t>
+  </si>
+  <si>
+    <t>Indoeuropea, Chibcha</t>
+  </si>
+  <si>
+    <t>Tucana</t>
+  </si>
+  <si>
+    <t>Aislada</t>
+  </si>
+  <si>
+    <t>Bora-Uitoto</t>
+  </si>
+  <si>
+    <t>Caribe</t>
+  </si>
+  <si>
+    <t>Tupí</t>
+  </si>
+  <si>
+    <t>Peba-yagua</t>
+  </si>
+  <si>
+    <t>Tinigua-pamigua</t>
+  </si>
+  <si>
+    <t>Makú Nadahup</t>
+  </si>
+  <si>
+    <t>380 460</t>
+  </si>
+  <si>
+    <t>307 091</t>
+  </si>
+  <si>
+    <t>243 176</t>
+  </si>
+  <si>
+    <t>163 873</t>
+  </si>
+  <si>
+    <t>77 714</t>
+  </si>
+  <si>
+    <t>56 504</t>
+  </si>
+  <si>
+    <t>52 361</t>
+  </si>
+  <si>
+    <t>51 635</t>
+  </si>
+  <si>
+    <t>48 117</t>
+  </si>
+  <si>
+    <t>44 516</t>
+  </si>
+  <si>
+    <t>37 009</t>
+  </si>
+  <si>
+    <t>34 897</t>
+  </si>
+  <si>
+    <t>34 711</t>
+  </si>
+  <si>
+    <t>21 713</t>
+  </si>
+  <si>
+    <t>19 561</t>
+  </si>
+  <si>
+    <t>18 202</t>
+  </si>
+  <si>
+    <t>18 135</t>
+  </si>
+  <si>
+    <t>16 986</t>
+  </si>
+  <si>
+    <t>15 820</t>
+  </si>
+  <si>
+    <t>14 825</t>
+  </si>
+  <si>
+    <t>14 461</t>
+  </si>
+  <si>
+    <t>14 074</t>
+  </si>
+  <si>
+    <t>13 842</t>
+  </si>
+  <si>
+    <t>11 946</t>
+  </si>
+  <si>
+    <t>14 142</t>
+  </si>
+  <si>
+    <t>11 265</t>
+  </si>
+  <si>
+    <t>10 649</t>
+  </si>
+  <si>
+    <t>8 984</t>
+  </si>
+  <si>
+    <t>8 916</t>
+  </si>
+  <si>
+    <t>7 521</t>
+  </si>
+  <si>
+    <t>7 333</t>
+  </si>
+  <si>
+    <t>7 047</t>
+  </si>
+  <si>
+    <t>4 783</t>
+  </si>
+  <si>
+    <t>4 233</t>
+  </si>
+  <si>
+    <t>4 075</t>
+  </si>
+  <si>
+    <t>3 974</t>
+  </si>
+  <si>
+    <t>3 688</t>
+  </si>
+  <si>
+    <t>3 641</t>
+  </si>
+  <si>
+    <t>3 610</t>
+  </si>
+  <si>
+    <t>3 312</t>
+  </si>
+  <si>
+    <t>3 278</t>
+  </si>
+  <si>
+    <t>3 257</t>
+  </si>
+  <si>
+    <t>3 221</t>
+  </si>
+  <si>
+    <t>3 018</t>
+  </si>
+  <si>
+    <t>2 960</t>
+  </si>
+  <si>
+    <t>2 610</t>
+  </si>
+  <si>
+    <t>2 599</t>
+  </si>
+  <si>
+    <t>2 225</t>
+  </si>
+  <si>
+    <t>2 211</t>
+  </si>
+  <si>
+    <t>2 113</t>
+  </si>
+  <si>
+    <t>1 962</t>
+  </si>
+  <si>
+    <t>1 816</t>
+  </si>
+  <si>
+    <t>1 764</t>
+  </si>
+  <si>
+    <t>1 701</t>
+  </si>
+  <si>
+    <t>1 658</t>
+  </si>
+  <si>
+    <t>1 582</t>
+  </si>
+  <si>
+    <t>1 467</t>
+  </si>
+  <si>
+    <t>1 127</t>
+  </si>
+  <si>
+    <t>1 106</t>
+  </si>
+  <si>
+    <t>1 091</t>
+  </si>
+  <si>
+    <t>1 047</t>
+  </si>
+  <si>
+    <t>1 040</t>
+  </si>
+  <si>
+    <t>1 004</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>984</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>895</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>744</t>
+  </si>
+  <si>
+    <t>618</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La Guajira</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Córdoba
+ Sucre
+ Bolívar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cauca
+ Valle del Cauca
+ Putumayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nariño</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Risaralda
+ Caldas
+ Antioquia
+ Quindío</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chocó
+ Risaralda
+ Caldas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vichada
+ Meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tolima</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antioquia
+ Chocó
+ Córdoba</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nariño
+ Putumayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atlántico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cauca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cesar
+ Magdalena</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Putumayo
+ Nariño</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La Guajira
+ Cesar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cesar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La Guajira
+ Cesar
+ Magdalena</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chocó
+ Valle del Cauca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guainía
+ Meta
+ Vichada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vaupés
+ Guaviare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amazonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guainía
+ Vaupés</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amazonas
+ Putumayo
+ Caquetá</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cundinamarca
+ Boyacá
+ Santander</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boyacá
+ Arauca
+ Norte de Santander</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guainía
+ Guaviare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Putumayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cauca
+ Nariño</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Casanare
+ Vichada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chocó</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guaviare
+ Vaupés</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Putumayo
+ Valle del Cauca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caquetá</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Norte de Santander</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guaviare
+ Meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antioquia
+ Chocó</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caldas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Casanare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amazonas
+ Putumayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amazonas
+ Vaupés</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arauca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magdalena</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vaupés</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guainía
+ Vichada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meta
+ Casanare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arauca
+ Casanare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caquetá
+ Amazonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guaviare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huila</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guainía</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guaviare
+ Amazonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caquetá
+ Cauca
+ Huila</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Santander</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antioquia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vichada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valle del Cauca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caldas
+ Risaralda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cundinamarca
+ Tolima</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cesar
+ La Guajira
+ Magdalena</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Norte de Santander
+ Santander</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vaupés
+ Amazonas</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +1467,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +1475,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +1793,2395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>271</v>
+      </c>
+      <c r="E14" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>261</v>
+      </c>
+      <c r="E22" t="s">
+        <v>302</v>
+      </c>
+      <c r="F22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>275</v>
+      </c>
+      <c r="E24" t="s">
+        <v>304</v>
+      </c>
+      <c r="F24" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E25" t="s">
+        <v>305</v>
+      </c>
+      <c r="F25" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" t="s">
+        <v>307</v>
+      </c>
+      <c r="F27" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" t="s">
+        <v>271</v>
+      </c>
+      <c r="E28" t="s">
+        <v>308</v>
+      </c>
+      <c r="F28" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F29" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" t="s">
+        <v>310</v>
+      </c>
+      <c r="F30" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" t="s">
+        <v>311</v>
+      </c>
+      <c r="F31" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" t="s">
+        <v>312</v>
+      </c>
+      <c r="F32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" t="s">
+        <v>265</v>
+      </c>
+      <c r="E33" t="s">
+        <v>313</v>
+      </c>
+      <c r="F33" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>314</v>
+      </c>
+      <c r="F34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>265</v>
+      </c>
+      <c r="E35" t="s">
+        <v>315</v>
+      </c>
+      <c r="F35" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>316</v>
+      </c>
+      <c r="F36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>268</v>
+      </c>
+      <c r="E37" t="s">
+        <v>317</v>
+      </c>
+      <c r="F37" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" t="s">
+        <v>318</v>
+      </c>
+      <c r="F38" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>274</v>
+      </c>
+      <c r="E39" t="s">
+        <v>319</v>
+      </c>
+      <c r="F39" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" t="s">
+        <v>277</v>
+      </c>
+      <c r="E40" t="s">
+        <v>320</v>
+      </c>
+      <c r="F40" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>274</v>
+      </c>
+      <c r="E41" t="s">
+        <v>321</v>
+      </c>
+      <c r="F41" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>268</v>
+      </c>
+      <c r="E42" t="s">
+        <v>322</v>
+      </c>
+      <c r="F42" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>274</v>
+      </c>
+      <c r="E43" t="s">
+        <v>323</v>
+      </c>
+      <c r="F43" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" t="s">
+        <v>324</v>
+      </c>
+      <c r="F44" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" t="s">
+        <v>271</v>
+      </c>
+      <c r="E45" t="s">
+        <v>325</v>
+      </c>
+      <c r="F45" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>266</v>
+      </c>
+      <c r="E46" t="s">
+        <v>326</v>
+      </c>
+      <c r="F46" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" t="s">
+        <v>271</v>
+      </c>
+      <c r="E47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F47" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>274</v>
+      </c>
+      <c r="E48" t="s">
+        <v>328</v>
+      </c>
+      <c r="F48" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49" t="s">
+        <v>329</v>
+      </c>
+      <c r="F49" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50" t="s">
+        <v>330</v>
+      </c>
+      <c r="F50" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" t="s">
+        <v>276</v>
+      </c>
+      <c r="E51" t="s">
+        <v>331</v>
+      </c>
+      <c r="F51" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" t="s">
+        <v>274</v>
+      </c>
+      <c r="E52" t="s">
+        <v>332</v>
+      </c>
+      <c r="F52" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>275</v>
+      </c>
+      <c r="E53" t="s">
+        <v>333</v>
+      </c>
+      <c r="F53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E54" t="s">
+        <v>334</v>
+      </c>
+      <c r="F54" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" t="s">
+        <v>243</v>
+      </c>
+      <c r="D55" t="s">
+        <v>271</v>
+      </c>
+      <c r="E55" t="s">
+        <v>335</v>
+      </c>
+      <c r="F55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" t="s">
+        <v>274</v>
+      </c>
+      <c r="E56" t="s">
+        <v>336</v>
+      </c>
+      <c r="F56" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" t="s">
+        <v>261</v>
+      </c>
+      <c r="E57" t="s">
+        <v>337</v>
+      </c>
+      <c r="F57" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" t="s">
+        <v>274</v>
+      </c>
+      <c r="E58" t="s">
+        <v>338</v>
+      </c>
+      <c r="F58" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" t="s">
+        <v>339</v>
+      </c>
+      <c r="F59" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
+        <v>274</v>
+      </c>
+      <c r="E60" t="s">
+        <v>340</v>
+      </c>
+      <c r="F60" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" t="s">
+        <v>341</v>
+      </c>
+      <c r="F61" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" t="s">
+        <v>276</v>
+      </c>
+      <c r="E62" t="s">
+        <v>342</v>
+      </c>
+      <c r="F62" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>274</v>
+      </c>
+      <c r="E63" t="s">
+        <v>343</v>
+      </c>
+      <c r="F63" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>274</v>
+      </c>
+      <c r="E64" t="s">
+        <v>344</v>
+      </c>
+      <c r="F64" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" t="s">
+        <v>274</v>
+      </c>
+      <c r="E65" t="s">
+        <v>345</v>
+      </c>
+      <c r="F65" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" t="s">
+        <v>279</v>
+      </c>
+      <c r="E66" t="s">
+        <v>346</v>
+      </c>
+      <c r="F66" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" t="s">
+        <v>261</v>
+      </c>
+      <c r="E67" t="s">
+        <v>347</v>
+      </c>
+      <c r="F67" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" t="s">
+        <v>244</v>
+      </c>
+      <c r="D68" t="s">
+        <v>274</v>
+      </c>
+      <c r="E68" t="s">
+        <v>348</v>
+      </c>
+      <c r="F68" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" t="s">
+        <v>245</v>
+      </c>
+      <c r="D69" t="s">
+        <v>274</v>
+      </c>
+      <c r="E69" t="s">
+        <v>349</v>
+      </c>
+      <c r="F69" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" t="s">
+        <v>266</v>
+      </c>
+      <c r="E70" t="s">
+        <v>350</v>
+      </c>
+      <c r="F70" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" t="s">
+        <v>275</v>
+      </c>
+      <c r="E71" t="s">
+        <v>351</v>
+      </c>
+      <c r="F71" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" t="s">
+        <v>261</v>
+      </c>
+      <c r="E72" t="s">
+        <v>352</v>
+      </c>
+      <c r="F72" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" t="s">
+        <v>276</v>
+      </c>
+      <c r="E73" t="s">
+        <v>353</v>
+      </c>
+      <c r="F73" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" t="s">
+        <v>354</v>
+      </c>
+      <c r="F74" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" t="s">
+        <v>274</v>
+      </c>
+      <c r="E75" t="s">
+        <v>355</v>
+      </c>
+      <c r="F75" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>192</v>
+      </c>
+      <c r="C76" t="s">
+        <v>231</v>
+      </c>
+      <c r="D76" t="s">
+        <v>270</v>
+      </c>
+      <c r="E76" t="s">
+        <v>356</v>
+      </c>
+      <c r="F76" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" t="s">
+        <v>193</v>
+      </c>
+      <c r="D77" t="s">
+        <v>278</v>
+      </c>
+      <c r="E77" t="s">
+        <v>357</v>
+      </c>
+      <c r="F77" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" t="s">
+        <v>277</v>
+      </c>
+      <c r="E78" t="s">
+        <v>358</v>
+      </c>
+      <c r="F78" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" t="s">
+        <v>266</v>
+      </c>
+      <c r="E79" t="s">
+        <v>359</v>
+      </c>
+      <c r="F79" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" t="s">
+        <v>360</v>
+      </c>
+      <c r="F80" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" t="s">
+        <v>276</v>
+      </c>
+      <c r="E81" t="s">
+        <v>361</v>
+      </c>
+      <c r="F81" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" t="s">
+        <v>266</v>
+      </c>
+      <c r="E82" t="s">
+        <v>362</v>
+      </c>
+      <c r="F82" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" t="s">
+        <v>274</v>
+      </c>
+      <c r="E83" t="s">
+        <v>363</v>
+      </c>
+      <c r="F83" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" t="s">
+        <v>276</v>
+      </c>
+      <c r="E84" t="s">
+        <v>364</v>
+      </c>
+      <c r="F84" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" t="s">
+        <v>247</v>
+      </c>
+      <c r="D85" t="s">
+        <v>269</v>
+      </c>
+      <c r="E85" t="s">
+        <v>365</v>
+      </c>
+      <c r="F85" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" t="s">
+        <v>201</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" t="s">
+        <v>261</v>
+      </c>
+      <c r="E86" t="s">
+        <v>366</v>
+      </c>
+      <c r="F86" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87" t="s">
+        <v>248</v>
+      </c>
+      <c r="D87" t="s">
+        <v>273</v>
+      </c>
+      <c r="E87" t="s">
+        <v>367</v>
+      </c>
+      <c r="F87" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" t="s">
+        <v>274</v>
+      </c>
+      <c r="E88" t="s">
+        <v>368</v>
+      </c>
+      <c r="F88" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" t="s">
+        <v>249</v>
+      </c>
+      <c r="D89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E89" t="s">
+        <v>369</v>
+      </c>
+      <c r="F89" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" t="s">
+        <v>250</v>
+      </c>
+      <c r="D90" t="s">
+        <v>273</v>
+      </c>
+      <c r="E90" t="s">
+        <v>370</v>
+      </c>
+      <c r="F90" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" t="s">
+        <v>371</v>
+      </c>
+      <c r="F91" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" t="s">
+        <v>251</v>
+      </c>
+      <c r="D92" t="s">
+        <v>280</v>
+      </c>
+      <c r="E92" t="s">
+        <v>372</v>
+      </c>
+      <c r="F92" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" t="s">
+        <v>266</v>
+      </c>
+      <c r="E93" t="s">
+        <v>373</v>
+      </c>
+      <c r="F93" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" t="s">
+        <v>275</v>
+      </c>
+      <c r="E94" t="s">
+        <v>374</v>
+      </c>
+      <c r="F94" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" t="s">
+        <v>252</v>
+      </c>
+      <c r="D95" t="s">
+        <v>267</v>
+      </c>
+      <c r="E95" t="s">
+        <v>375</v>
+      </c>
+      <c r="F95" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" t="s">
+        <v>274</v>
+      </c>
+      <c r="E96" t="s">
+        <v>376</v>
+      </c>
+      <c r="F96" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" t="s">
+        <v>274</v>
+      </c>
+      <c r="E97" t="s">
+        <v>377</v>
+      </c>
+      <c r="F97" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" t="s">
+        <v>275</v>
+      </c>
+      <c r="E98" t="s">
+        <v>378</v>
+      </c>
+      <c r="F98" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" t="s">
+        <v>253</v>
+      </c>
+      <c r="D99" t="s">
+        <v>269</v>
+      </c>
+      <c r="E99" t="s">
+        <v>379</v>
+      </c>
+      <c r="F99" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" t="s">
+        <v>254</v>
+      </c>
+      <c r="D100" t="s">
+        <v>273</v>
+      </c>
+      <c r="E100" t="s">
+        <v>380</v>
+      </c>
+      <c r="F100" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" t="s">
+        <v>266</v>
+      </c>
+      <c r="E101" t="s">
+        <v>381</v>
+      </c>
+      <c r="F101" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" t="s">
+        <v>131</v>
+      </c>
+      <c r="E102" t="s">
+        <v>382</v>
+      </c>
+      <c r="F102" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" t="s">
+        <v>255</v>
+      </c>
+      <c r="D103" t="s">
+        <v>269</v>
+      </c>
+      <c r="E103" t="s">
+        <v>383</v>
+      </c>
+      <c r="F103" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" t="s">
+        <v>108</v>
+      </c>
+      <c r="E104" t="s">
+        <v>384</v>
+      </c>
+      <c r="F104" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="s">
+        <v>256</v>
+      </c>
+      <c r="D105" t="s">
+        <v>273</v>
+      </c>
+      <c r="E105" t="s">
+        <v>385</v>
+      </c>
+      <c r="F105" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" t="s">
+        <v>108</v>
+      </c>
+      <c r="E106" t="s">
+        <v>386</v>
+      </c>
+      <c r="F106" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F107" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" t="s">
+        <v>274</v>
+      </c>
+      <c r="E108" t="s">
+        <v>388</v>
+      </c>
+      <c r="F108" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" t="s">
+        <v>266</v>
+      </c>
+      <c r="E109" t="s">
+        <v>389</v>
+      </c>
+      <c r="F109" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" t="s">
+        <v>268</v>
+      </c>
+      <c r="E110" t="s">
+        <v>390</v>
+      </c>
+      <c r="F110" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" t="s">
+        <v>131</v>
+      </c>
+      <c r="C111" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111" t="s">
+        <v>263</v>
+      </c>
+      <c r="E111" t="s">
+        <v>390</v>
+      </c>
+      <c r="F111" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
+        <v>131</v>
+      </c>
+      <c r="C112" t="s">
+        <v>257</v>
+      </c>
+      <c r="D112" t="s">
+        <v>273</v>
+      </c>
+      <c r="E112" t="s">
+        <v>391</v>
+      </c>
+      <c r="F112" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" t="s">
+        <v>214</v>
+      </c>
+      <c r="C113" t="s">
+        <v>258</v>
+      </c>
+      <c r="D113" t="s">
+        <v>281</v>
+      </c>
+      <c r="E113" t="s">
+        <v>392</v>
+      </c>
+      <c r="F113" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" t="s">
+        <v>215</v>
+      </c>
+      <c r="D114" t="s">
+        <v>108</v>
+      </c>
+      <c r="E114" t="s">
+        <v>393</v>
+      </c>
+      <c r="F114" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" t="s">
+        <v>259</v>
+      </c>
+      <c r="D115" t="s">
+        <v>263</v>
+      </c>
+      <c r="E115" t="s">
+        <v>394</v>
+      </c>
+      <c r="F115" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116" t="s">
+        <v>42</v>
+      </c>
+      <c r="D116" t="s">
+        <v>272</v>
+      </c>
+      <c r="E116" t="s">
+        <v>366</v>
+      </c>
+      <c r="F116" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" t="s">
+        <v>131</v>
+      </c>
+      <c r="C117" t="s">
+        <v>260</v>
+      </c>
+      <c r="D117" t="s">
+        <v>260</v>
+      </c>
+      <c r="E117" t="s">
+        <v>395</v>
+      </c>
+      <c r="F117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" t="s">
+        <v>217</v>
+      </c>
+      <c r="C118" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="s">
+        <v>219</v>
+      </c>
+      <c r="C120" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" t="s">
+        <v>220</v>
+      </c>
+      <c r="C121" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" t="s">
+        <v>222</v>
+      </c>
+      <c r="C123" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/poblacion_indigena_colombia.xlsx
+++ b/poblacion_indigena_colombia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="460">
   <si>
     <t>Pueblo</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>Distribución</t>
+  </si>
+  <si>
+    <t>Indígenas de Colombia</t>
+  </si>
+  <si>
+    <t>1 905 617</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colombia</t>
   </si>
   <si>
     <t>Wayuu</t>
@@ -1793,13 +1802,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1818,2367 +1827,2376 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E11" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>134</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" t="s">
-        <v>289</v>
-      </c>
-      <c r="F9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" t="s">
-        <v>291</v>
-      </c>
-      <c r="F11" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>131</v>
-      </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F12" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
         <v>271</v>
       </c>
-      <c r="E14" t="s">
-        <v>294</v>
-      </c>
-      <c r="F14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>268</v>
-      </c>
       <c r="E15" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F15" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D16" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E16" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F16" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D17" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E17" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F17" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E18" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F18" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D19" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E19" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F19" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E20" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F20" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E21" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F21" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E22" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F22" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E23" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F23" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E24" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F24" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F25" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E26" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F26" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E27" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F27" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D28" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E28" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F28" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F29" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E30" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F30" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E31" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F31" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E32" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F32" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D33" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F33" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F34" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E35" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F35" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F36" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E37" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F37" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E38" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F38" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E39" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F39" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D40" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E40" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F40" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E41" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F41" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E42" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F42" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E43" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F43" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E44" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F44" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D45" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E45" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F45" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E46" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F46" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D47" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E47" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F47" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E48" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F48" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E49" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F49" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E50" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F50" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D51" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E51" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F51" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E52" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F52" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E53" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F53" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E54" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F54" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D55" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E55" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F55" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E56" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F56" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E57" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F57" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E58" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F58" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F59" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E60" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F60" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E61" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F61" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E62" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F62" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E63" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F63" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E64" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F64" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E65" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F65" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D66" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E66" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F66" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D67" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E67" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F67" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C68" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D68" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E68" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F68" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C69" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D69" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E69" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F69" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E70" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F70" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E71" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F71" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E72" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F72" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E73" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F73" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E74" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F74" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D75" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E75" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F75" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C76" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D76" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E76" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F76" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C77" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D77" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E77" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F77" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E78" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F78" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D79" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E79" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F79" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C80" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D80" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E80" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F80" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D81" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E81" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F81" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C82" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D82" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E82" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F82" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D83" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E83" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F83" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D84" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E84" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F84" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D85" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E85" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F85" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D86" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E86" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F86" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D87" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E87" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F87" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C88" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D88" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E88" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F88" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C89" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D89" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E89" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F89" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C90" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D90" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E90" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F90" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E91" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F91" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C92" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D92" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E92" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F92" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C93" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E93" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F93" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C94" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D94" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E94" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F94" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C95" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D95" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E95" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F95" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C96" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D96" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E96" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F96" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D97" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E97" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F97" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C98" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D98" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E98" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F98" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C99" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D99" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E99" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F99" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C100" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D100" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F100" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C101" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D101" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E101" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F101" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E102" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F102" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C103" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D103" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E103" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F103" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D104" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E104" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F104" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C105" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D105" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E105" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F105" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C106" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D106" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E106" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F106" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E107" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F107" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C108" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D108" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E108" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F108" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C109" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D109" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E109" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F109" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D110" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E110" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F110" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C111" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D111" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E111" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F111" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C112" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D112" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E112" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F112" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C113" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D113" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E113" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F113" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D114" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E114" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F114" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C115" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D115" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E115" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F115" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C116" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D116" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E116" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F116" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C117" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D117" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E117" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F117" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C120" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C121" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C123" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
